--- a/Гол_во_втором_тайме_с_LIVE_HT.xlsx
+++ b/Гол_во_втором_тайме_с_LIVE_HT.xlsx
@@ -5145,14 +5145,14 @@
     <row r="2">
       <c r="T2" t="inlineStr">
         <is>
-          <t>26.12.2025 15:21</t>
+          <t>26.12.2025 16:00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="T3" t="inlineStr">
         <is>
-          <t>Матчей найдено: 0</t>
+          <t>Live матчей: 0</t>
         </is>
       </c>
     </row>

--- a/Гол_во_втором_тайме_с_LIVE_HT.xlsx
+++ b/Гол_во_втором_тайме_с_LIVE_HT.xlsx
@@ -5145,7 +5145,7 @@
     <row r="2">
       <c r="T2" t="inlineStr">
         <is>
-          <t>26.12.2025 16:00</t>
+          <t>26.12.2025 16:23</t>
         </is>
       </c>
     </row>
